--- a/autoConditions/train1Block4Test.xlsx
+++ b/autoConditions/train1Block4Test.xlsx
@@ -487,15 +487,11 @@
           <t>pngimages/03_box.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
@@ -519,15 +515,11 @@
           <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
@@ -551,15 +543,11 @@
           <t>pngimages/25_apple.png</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
+      <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block4Test.xlsx
+++ b/autoConditions/train1Block4Test.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/12_pokika.wav</t>
+          <t>trainingimages/24_takopa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/03_kikita.wav</t>
+          <t>trainingimages/15_kopota</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,50 +497,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/17_kotako.wav</t>
+          <t>trainingimages/20_tatito</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/07_pitapi.wav</t>
+          <t>trainingimages/13_kopopi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainingimages/02_pitito</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainingimages/03_kikita</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
       <c r="E4" t="n">

--- a/autoConditions/train1Block4Test.xlsx
+++ b/autoConditions/train1Block4Test.xlsx
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/24_takopa</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/15_kopota</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,50 +497,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/20_tatito</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/13_kopopi</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/02_pitito</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainingimages/03_kikita</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
       <c r="E4" t="n">
